--- a/data/trans_bre/P2C_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R2-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,09%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,46%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,16; 12,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,05; 10,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,75; 8,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,12; 6,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,83; 42,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 24,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,67; 26,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,54; 58,7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,07</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,31</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,5</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,4%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 8,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,72; 11,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,7; 13,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,16; 17,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 31,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,25; 25,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,93; 45,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,6; 248,6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,89</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,1</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,66%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>204,22%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,05; 10,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,94; 13,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,55; 13,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,71; 55,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 38,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,25; 32,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,55; 48,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,28; 628,62</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,82</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,75</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,7%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,78; 10,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,46; 11,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,36; 11,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,98; 4,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,29; 40,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,99; 31,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,89; 47,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,27; 43,18</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,37</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,81</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,43</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,78%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,05%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,04; 7,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,29; 9,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,07; 9,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,0; 23,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,01; 28,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,28; 20,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,87; 31,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,21; 220,25</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P2C_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R2-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,16; 12,07</t>
+          <t>1,78; 12,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 10,89</t>
+          <t>-0,67; 10,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 8,38</t>
+          <t>-2,38; 8,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 6,53</t>
+          <t>-1,29; 6,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,83; 42,43</t>
+          <t>5,04; 43,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 24,51</t>
+          <t>-0,92; 23,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 26,59</t>
+          <t>-6,44; 27,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 58,7</t>
+          <t>-8,48; 59,83</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 8,87</t>
+          <t>-0,44; 8,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 11,78</t>
+          <t>2,84; 11,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,7; 13,99</t>
+          <t>4,71; 13,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,16; 17,09</t>
+          <t>6,18; 17,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 31,98</t>
+          <t>-1,33; 28,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,25; 25,37</t>
+          <t>5,64; 25,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,93; 45,05</t>
+          <t>13,03; 43,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,6; 248,6</t>
+          <t>39,0; 285,87</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 10,15</t>
+          <t>-0,4; 9,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 13,43</t>
+          <t>3,32; 13,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,55; 13,56</t>
+          <t>3,9; 13,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 55,51</t>
+          <t>3,55; 52,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 38,24</t>
+          <t>-1,24; 37,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,25; 32,36</t>
+          <t>7,12; 33,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,55; 48,1</t>
+          <t>11,99; 47,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,28; 628,62</t>
+          <t>31,36; 605,11</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,78; 10,11</t>
+          <t>1,58; 9,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,46; 11,51</t>
+          <t>2,66; 11,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,36; 11,82</t>
+          <t>3,18; 11,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 4,2</t>
+          <t>-1,98; 4,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,29; 40,2</t>
+          <t>5,72; 39,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,99; 31,58</t>
+          <t>6,59; 31,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,89; 47,84</t>
+          <t>10,84; 46,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,27; 43,18</t>
+          <t>-14,93; 43,72</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,04; 7,85</t>
+          <t>3,03; 7,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,29; 9,13</t>
+          <t>4,63; 9,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,07; 9,62</t>
+          <t>5,06; 9,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,0; 23,68</t>
+          <t>3,97; 24,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,01; 28,25</t>
+          <t>9,83; 27,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,28; 20,8</t>
+          <t>10,2; 22,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,87; 31,99</t>
+          <t>15,69; 33,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31,21; 220,25</t>
+          <t>30,74; 208,36</t>
         </is>
       </c>
     </row>
